--- a/Collections/СССР/Советские монеты регулярного чекана 1921-1991.xlsx
+++ b/Collections/СССР/Советские монеты регулярного чекана 1921-1991.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="полкопейки" sheetId="12" r:id="rId1"/>
@@ -918,6 +918,19 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -940,19 +953,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -960,6 +960,15 @@
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="90">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1633,15 +1642,6 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFE5DFEC"/>
@@ -1692,9 +1692,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="86"/>
-    <tableColumn id="2" name="Link" dataDxfId="85" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="84"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1982,16 +1982,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="32"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
@@ -2001,8 +2001,8 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
@@ -2204,7 +2204,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F7 F9:F10">
-    <cfRule type="containsText" dxfId="83" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2221,7 +2221,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="82" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="85" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2238,7 +2238,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="81" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="84" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2255,7 +2255,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="80" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2272,7 +2272,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="79" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2289,7 +2289,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="78" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2315,11 +2315,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G66" sqref="G66"/>
+      <selection pane="bottomRight" activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2334,16 +2334,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="32"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
@@ -2353,8 +2353,8 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
@@ -4140,7 +4140,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F8:F43 F61:F72 F74:F75 F77:F78 F47:F59">
-    <cfRule type="containsText" dxfId="8" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -4155,7 +4155,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F5 F44">
-    <cfRule type="containsText" dxfId="7" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -4170,7 +4170,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -4185,7 +4185,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F45))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -4200,7 +4200,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F46))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -4215,7 +4215,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -4230,7 +4230,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F60))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -4245,7 +4245,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F73">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F73))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -4260,7 +4260,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F76))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -4299,57 +4299,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="31" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="37">
+      <c r="A2" s="29">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="33" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="37">
+      <c r="A3" s="29">
         <v>2</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="33" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="41"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="41"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="33"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="41"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4386,16 +4386,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="36"/>
+      <c r="D1" s="41"/>
       <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
@@ -4405,8 +4405,8 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="34"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="19" t="s">
         <v>6</v>
       </c>
@@ -6045,7 +6045,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="77" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6062,7 +6062,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F11 F32:F36 F29 F38 F40 F13:F25">
-    <cfRule type="containsText" dxfId="76" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6079,7 +6079,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="75" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6096,7 +6096,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="74" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6113,7 +6113,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="73" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6130,7 +6130,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="containsText" dxfId="72" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6147,7 +6147,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="71" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6164,7 +6164,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="containsText" dxfId="70" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6181,7 +6181,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="69" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6198,7 +6198,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="containsText" dxfId="68" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6215,7 +6215,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="containsText" dxfId="67" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F39))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6232,7 +6232,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41">
-    <cfRule type="containsText" dxfId="66" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F41))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6249,7 +6249,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="65" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6266,7 +6266,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45:F74">
-    <cfRule type="containsText" dxfId="64" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F45))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6283,7 +6283,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F75:F76">
-    <cfRule type="containsText" dxfId="63" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F75))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6300,7 +6300,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="containsText" dxfId="62" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6317,7 +6317,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="containsText" dxfId="61" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F43))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6334,7 +6334,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="containsText" dxfId="60" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F44))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6378,16 +6378,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="32"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
@@ -6397,8 +6397,8 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
@@ -8149,7 +8149,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="59" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8166,7 +8166,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="58" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8183,7 +8183,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="57" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8200,7 +8200,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="56" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8217,7 +8217,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F18 F20:F25">
-    <cfRule type="containsText" dxfId="55" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8234,7 +8234,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="54" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8251,7 +8251,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="53" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8268,7 +8268,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="52" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8285,7 +8285,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:F42">
-    <cfRule type="containsText" dxfId="51" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8302,7 +8302,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46:F75">
-    <cfRule type="containsText" dxfId="50" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F46))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8319,7 +8319,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76:F77">
-    <cfRule type="containsText" dxfId="49" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F76))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8336,7 +8336,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="48" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8353,7 +8353,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8432,16 +8432,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="32"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
@@ -8451,8 +8451,8 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
@@ -10141,7 +10141,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F6 F9:F18 F20:F32 F34:F42 F44:F46">
-    <cfRule type="containsText" dxfId="44" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -10156,7 +10156,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47:F78">
-    <cfRule type="containsText" dxfId="43" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F47))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10173,7 +10173,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="42" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -10188,7 +10188,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="41" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -10203,7 +10203,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="40" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10220,7 +10220,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="39" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -10235,7 +10235,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="containsText" dxfId="38" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F43))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -10277,16 +10277,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="32"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
@@ -10296,8 +10296,8 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
@@ -12227,12 +12227,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45:F76">
-    <cfRule type="containsText" dxfId="37" priority="8" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="8" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F45))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="36" priority="6" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="6" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="7">
@@ -12353,11 +12353,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12373,16 +12373,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="32"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
@@ -12392,8 +12392,8 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
@@ -13717,11 +13717,11 @@
         <v>8</v>
       </c>
       <c r="F59" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G59" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>Can exchange</v>
+        <v/>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13937,11 +13937,11 @@
         <v>8</v>
       </c>
       <c r="F69" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G69" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>Can exchange</v>
+        <v/>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14139,7 +14139,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F12 F14:F23 F27:F28 F30:F38 F25 F40:F44 F47:F73">
-    <cfRule type="containsText" dxfId="31" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -14154,7 +14154,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="30" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -14169,7 +14169,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="29" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -14183,8 +14183,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24 F26">
-    <cfRule type="containsText" dxfId="28" priority="15" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F26 F24">
+    <cfRule type="containsText" dxfId="31" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -14199,7 +14199,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="containsText" dxfId="27" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F39))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -14214,7 +14214,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F45))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -14229,7 +14229,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F46))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -14244,7 +14244,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74:F75">
-    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F74))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -14259,7 +14259,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76:F77">
-    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F76))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14304,16 +14304,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="32"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
@@ -14323,8 +14323,8 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
@@ -15825,7 +15825,7 @@
         <v>2</v>
       </c>
       <c r="G67" s="13" t="str">
-        <f t="shared" ref="G67:G98" si="2">IF(OR(AND(F67&gt;1,F67&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G67:G74" si="2">IF(OR(AND(F67&gt;1,F67&lt;&gt;"-")),"Can exchange","")</f>
         <v>Can exchange</v>
       </c>
     </row>
@@ -16006,7 +16006,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F44 F47:F74">
-    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F43))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16071,16 +16071,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="32"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
@@ -16090,8 +16090,8 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
@@ -17589,7 +17589,7 @@
         <v>1</v>
       </c>
       <c r="G67" s="13" t="str">
-        <f t="shared" ref="G67:G98" si="2">IF(OR(AND(F67&gt;1,F67&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G67:G74" si="2">IF(OR(AND(F67&gt;1,F67&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -17770,7 +17770,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F44 F47:F74">
-    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F43))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17835,16 +17835,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="32"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
@@ -17854,8 +17854,8 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
@@ -19669,7 +19669,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F5 F9:F11 F7 F45 F48:F66 F72:F73 F75 F77:F79 F70">
-    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -19684,7 +19684,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -19699,7 +19699,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F44">
-    <cfRule type="containsText" dxfId="16" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -19714,7 +19714,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -19729,7 +19729,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F46))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -19744,7 +19744,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F47))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -19759,7 +19759,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71">
-    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F71))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -19774,7 +19774,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F74))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -19789,7 +19789,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76">
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F76))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -19804,7 +19804,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:F69">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F67))))</formula>
     </cfRule>
   </conditionalFormatting>
